--- a/results/stat.xlsx
+++ b/results/stat.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>model_loading_time</t>
-  </si>
-  <si>
-    <t>Inference_Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>FPS</t>
   </si>
@@ -54,6 +48,18 @@
   </si>
   <si>
     <t>Intel(R) Core(TM) i7-8665U CPU @1.90GHz 2.11GHz</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>model_time(s)</t>
+  </si>
+  <si>
+    <t>Inference_Time(s)</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +91,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +398,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,125 +410,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0131628513336099</v>
+      </c>
+      <c r="D2" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.3983739837398299</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0346214771270701</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.4180327868852398</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.17280673980712</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2957198443579698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="1">
+        <v>57.169264554977403</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.21804511278195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58.187354326248098</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.23484848484848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1.0131628513336099</v>
-      </c>
-      <c r="D2">
-        <v>24.6</v>
-      </c>
-      <c r="E2">
-        <v>2.3983739837398299</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>57.169264554977403</v>
-      </c>
-      <c r="D3">
-        <v>26.6</v>
-      </c>
-      <c r="E3">
-        <v>2.21804511278195</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1.0346214771270701</v>
-      </c>
-      <c r="D4">
-        <v>24.4</v>
-      </c>
-      <c r="E4">
-        <v>2.4180327868852398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>58.187354326248098</v>
-      </c>
-      <c r="D5">
-        <v>26.4</v>
-      </c>
-      <c r="E5">
-        <v>2.23484848484848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1.17280673980712</v>
-      </c>
-      <c r="D6">
-        <v>25.7</v>
-      </c>
-      <c r="E6">
-        <v>2.2957198443579698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>67.425359964370699</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>31.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1.8910256410256401</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E7">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
